--- a/Cost.xlsx
+++ b/Cost.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\EBikeBattery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF08DEC-E4A7-4918-930C-EF49ECB80A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB45F662-06E6-4554-8E70-62E9E461BB7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24225" yWindow="1830" windowWidth="25665" windowHeight="17115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1038" yWindow="1038" windowWidth="17280" windowHeight="11088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -66,6 +58,42 @@
   </si>
   <si>
     <t>5.5 x 2.1 10A Connector Adapter</t>
+  </si>
+  <si>
+    <t>Net Weight</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Leftover</t>
+  </si>
+  <si>
+    <t>Welding Rods</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>Bar + Holder</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Battery Holder</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -112,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -124,6 +152,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -409,21 +446,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="4"/>
+    <col min="2" max="2" width="40.578125" customWidth="1"/>
+    <col min="3" max="3" width="16.68359375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.15625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.3125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.83984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +473,18 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -447,8 +497,15 @@
       <c r="D2" s="3">
         <v>122.24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="7">
+        <v>100</v>
+      </c>
+      <c r="H2" s="7">
+        <f>F2-G2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -462,8 +519,12 @@
         <f>C3*1.1025</f>
         <v>17.077725000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H4" si="0">F3-G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -474,11 +535,24 @@
         <v>23.99</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4*1.1025</f>
+        <f t="shared" ref="D4:D9" si="1">C4*1.1025</f>
         <v>26.448975000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -486,11 +560,14 @@
         <v>20</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.05</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -498,11 +575,14 @@
         <v>15.99</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.628975000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -510,35 +590,155 @@
         <v>7.99</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8089750000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10.79</v>
+      </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>11.895975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>214.25465</v>
-      </c>
+        <v>226.15062499999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7">
+        <v>75</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <f>C13*D13</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>84</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E19" si="2">C14*D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="6">
+        <f>F4-SUM(E13:E17)</f>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Cost.xlsx
+++ b/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\EBikeBattery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB45F662-06E6-4554-8E70-62E9E461BB7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A670922-411F-43F9-A8F2-26BB56D70697}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1038" yWindow="1038" windowWidth="17280" windowHeight="11088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Misc.</t>
+  </si>
+  <si>
+    <t>Wasted</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -653,11 +662,11 @@
         <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="4">
         <f>C13*D13</f>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -674,24 +683,41 @@
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14:E19" si="2">C14*D14</f>
+        <f t="shared" ref="E14:E17" si="2">C14*D14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
       <c r="E15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
       <c r="E16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -711,7 +737,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="6">
         <f>F4-SUM(E13:E17)</f>
-        <v>925</v>
+        <v>956</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/Cost.xlsx
+++ b/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\EBikeBattery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A670922-411F-43F9-A8F2-26BB56D70697}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F834C2-0552-4BD5-A291-C260DEB35669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1038" yWindow="1038" windowWidth="17280" windowHeight="11088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -677,7 +677,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
